--- a/Testing/Exploratory Testing/TestCases.xlsx
+++ b/Testing/Exploratory Testing/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA20EB8B-E73A-475A-BBAA-13839C625598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9262DB55-6B9C-4398-9544-4C34A141A837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="96">
   <si>
     <t>Project name</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Executed By</t>
-  </si>
-  <si>
-    <t>Executed Date</t>
   </si>
   <si>
     <t>Comments(if any)</t>
@@ -785,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,12 +796,10 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -823,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -831,15 +823,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -873,127 +865,121 @@
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="76.5">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="76.5">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="60.75">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="60.75">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="60.75">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="60.75">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60.75">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
         <v>32</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="60.75">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1003,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F54E9D-720D-4035-8E98-537D6F4923E3}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1021,12 +1007,10 @@
     <col min="8" max="8" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1034,15 +1018,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1050,15 +1034,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1092,257 +1076,251 @@
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="106.5">
+    </row>
+    <row r="7" spans="1:11" ht="106.5">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="137.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="137.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="137.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="137.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="137.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="137.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="137.25">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="137.25">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="137.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="137.25">
-      <c r="A12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="137.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="137.25">
-      <c r="A13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="137.25">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="137.25">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="137.25">
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="137.25">
-      <c r="A15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1354,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7EE9DA-F5E1-46AA-91D1-6577FF8539E7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="A1:K11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1394,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1437,147 +1415,147 @@
         <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="229.5">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
         <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="244.5">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="244.5">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="244.5">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="I10" t="s">
         <v>83</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
       <c r="K10" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1587,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C45234-4A38-4AA8-8DFB-301F2F45666B}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="BB7" sqref="BB7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1605,12 +1583,10 @@
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1618,15 +1594,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1634,15 +1610,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1676,128 +1652,122 @@
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="381.75">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="381.75">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
       <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="244.5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="244.5">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="137.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="137.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="137.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="137.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
